--- a/public/files/simple.xlsx
+++ b/public/files/simple.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0">
       <pane topLeftCell="A1" state="frozenSplit" activePane="bottomRight" ySplit="1" xSplit="0"/>
@@ -77,7 +77,9 @@
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="7.489887640449439"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.389887640449439"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -88,10 +90,20 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>报名日期</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
           <t>原教练</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>现教练</t>
         </is>
@@ -105,10 +117,20 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -122,10 +144,20 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-31</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -139,10 +171,20 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-06</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -156,10 +198,20 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -173,10 +225,20 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-20</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -190,10 +252,20 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-19</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -207,10 +279,20 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-19</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -224,10 +306,20 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-24</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -241,10 +333,20 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-28</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -258,10 +360,20 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-25</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -275,10 +387,20 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-06</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -292,10 +414,20 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-22</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -309,10 +441,20 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-22</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -326,10 +468,20 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2015-09-26</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>袁杰</t>
         </is>
@@ -343,10 +495,20 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>2015-09-25</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>郭振兴</t>
         </is>
@@ -360,10 +522,20 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-13</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
         <is>
           <t>袁杰</t>
         </is>
@@ -377,10 +549,20 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -394,10 +576,20 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -411,10 +603,20 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -428,10 +630,20 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -445,10 +657,20 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -462,10 +684,20 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -479,10 +711,20 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-11</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -496,10 +738,20 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-14</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -513,10 +765,20 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-14</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -530,10 +792,20 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-24</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -547,10 +819,20 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -564,10 +846,20 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -581,10 +873,20 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-20</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -598,10 +900,20 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-16</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -615,10 +927,20 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-15</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -632,10 +954,20 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-16</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -649,10 +981,20 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-21</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -666,10 +1008,20 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-21</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -683,10 +1035,20 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-21</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -700,10 +1062,20 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-21</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -717,10 +1089,20 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-19</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -734,10 +1116,20 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-22</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -751,10 +1143,20 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-22</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -768,10 +1170,20 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-22</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -785,10 +1197,20 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-22</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -802,10 +1224,20 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-21</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -819,10 +1251,20 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-21</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -836,10 +1278,20 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-24</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -853,10 +1305,20 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-26</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -870,10 +1332,20 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-27</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E47" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -887,10 +1359,20 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-27</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E48" s="0" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
@@ -904,10 +1386,20 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>2015-10-28</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E49" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -921,10 +1413,20 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-04</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E50" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -938,10 +1440,20 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-12</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E51" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -955,10 +1467,20 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-06</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E52" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -972,10 +1494,20 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-11</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E53" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -989,10 +1521,20 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-14</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E54" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -1006,10 +1548,20 @@
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-14</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E55" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -1023,10 +1575,20 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-14</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E56" s="0" t="inlineStr">
         <is>
           <t> 丁军</t>
         </is>
@@ -1040,10 +1602,20 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-15</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -1057,10 +1629,20 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-17</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E58" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -1074,10 +1656,20 @@
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-17</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E59" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -1091,10 +1683,20 @@
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-19</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E60" s="0" t="inlineStr">
         <is>
           <t>张初</t>
         </is>
@@ -1108,10 +1710,20 @@
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-22</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E61" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1125,10 +1737,20 @@
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-23</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E62" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1142,10 +1764,20 @@
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-26</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E63" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1159,10 +1791,20 @@
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-26</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E64" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1176,10 +1818,20 @@
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-27</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E65" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1193,10 +1845,20 @@
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-27</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E66" s="0" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
@@ -1210,10 +1872,20 @@
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>2015-11-28</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E67" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1227,10 +1899,20 @@
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-01</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E68" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1244,10 +1926,20 @@
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-03</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E69" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1261,10 +1953,20 @@
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-03</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E70" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1278,10 +1980,20 @@
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-03</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E71" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -1295,10 +2007,20 @@
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-04</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E72" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1312,10 +2034,20 @@
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-05</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E73" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -1329,10 +2061,20 @@
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-08</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E74" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1346,10 +2088,20 @@
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-12</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E75" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1363,10 +2115,20 @@
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-12</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E76" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1380,10 +2142,20 @@
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-12</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1397,10 +2169,20 @@
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-17</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E78" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1414,10 +2196,20 @@
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-18</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E79" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1431,10 +2223,20 @@
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-21</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E80" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -1448,10 +2250,20 @@
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-24</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E81" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -1465,10 +2277,20 @@
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-24</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E82" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1482,10 +2304,20 @@
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E83" s="0" t="inlineStr">
         <is>
           <t>【驾本易】</t>
         </is>
@@ -1499,10 +2331,20 @@
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-15</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E84" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1516,10 +2358,20 @@
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E85" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -1533,10 +2385,20 @@
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E86" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1550,10 +2412,20 @@
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-25</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E87" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -1567,10 +2439,20 @@
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-26</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E88" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1584,10 +2466,20 @@
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-29</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E89" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1601,10 +2493,20 @@
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-31</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E90" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1618,10 +2520,20 @@
       </c>
       <c r="B91" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-24</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E91" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -1635,10 +2547,20 @@
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-31</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E92" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1652,10 +2574,20 @@
       </c>
       <c r="B93" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-10</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E93" s="0" t="inlineStr">
         <is>
           <t>张初</t>
         </is>
@@ -1669,10 +2601,20 @@
       </c>
       <c r="B94" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-06</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E94" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1686,10 +2628,20 @@
       </c>
       <c r="B95" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>2016-08-31</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E95" s="0" t="inlineStr">
         <is>
           <t>陈志欣</t>
         </is>
@@ -1703,10 +2655,20 @@
       </c>
       <c r="B96" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>2015-12-24</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E96" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1720,10 +2682,20 @@
       </c>
       <c r="B97" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-14</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E97" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1737,10 +2709,20 @@
       </c>
       <c r="B98" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-14</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E98" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1754,10 +2736,20 @@
       </c>
       <c r="B99" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-15</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E99" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1771,10 +2763,20 @@
       </c>
       <c r="B100" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-26</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E100" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -1788,10 +2790,20 @@
       </c>
       <c r="B101" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-22</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E101" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1805,10 +2817,20 @@
       </c>
       <c r="B102" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-28</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E102" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -1822,10 +2844,20 @@
       </c>
       <c r="B103" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>2016-01-26</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E103" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -1839,10 +2871,20 @@
       </c>
       <c r="B104" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-05</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E104" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -1856,10 +2898,20 @@
       </c>
       <c r="B105" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-01</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E105" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -1873,10 +2925,20 @@
       </c>
       <c r="B106" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-20</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E106" s="0" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
@@ -1890,10 +2952,20 @@
       </c>
       <c r="B107" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E107" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -1907,10 +2979,20 @@
       </c>
       <c r="B108" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-20</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E108" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -1924,10 +3006,20 @@
       </c>
       <c r="B109" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-22</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E109" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -1941,10 +3033,20 @@
       </c>
       <c r="B110" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E110" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -1958,10 +3060,20 @@
       </c>
       <c r="B111" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E111" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -1975,10 +3087,20 @@
       </c>
       <c r="B112" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-20</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E112" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -1992,10 +3114,20 @@
       </c>
       <c r="B113" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-20</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E113" s="0" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
@@ -2009,10 +3141,20 @@
       </c>
       <c r="B114" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-29</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E114" s="0" t="inlineStr">
         <is>
           <t>庞旭正</t>
         </is>
@@ -2026,10 +3168,20 @@
       </c>
       <c r="B115" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E115" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2043,10 +3195,20 @@
       </c>
       <c r="B116" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-22</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E116" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2060,10 +3222,20 @@
       </c>
       <c r="B117" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E117" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2077,10 +3249,20 @@
       </c>
       <c r="B118" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-22</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E118" s="0" t="inlineStr">
         <is>
           <t>张初</t>
         </is>
@@ -2094,10 +3276,20 @@
       </c>
       <c r="B119" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-22</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E119" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2111,10 +3303,20 @@
       </c>
       <c r="B120" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-25</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E120" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2128,10 +3330,20 @@
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E121" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2145,10 +3357,20 @@
       </c>
       <c r="B122" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E122" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2162,10 +3384,20 @@
       </c>
       <c r="B123" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-27</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E123" s="0" t="inlineStr">
         <is>
           <t>郑正勇</t>
         </is>
@@ -2179,10 +3411,20 @@
       </c>
       <c r="B124" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E124" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2196,10 +3438,20 @@
       </c>
       <c r="B125" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E125" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2213,10 +3465,20 @@
       </c>
       <c r="B126" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-24</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E126" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2230,10 +3492,20 @@
       </c>
       <c r="B127" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-24</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E127" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2247,10 +3519,20 @@
       </c>
       <c r="B128" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>联系中</t>
         </is>
       </c>
       <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E128" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2264,10 +3546,20 @@
       </c>
       <c r="B129" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E129" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2281,10 +3573,20 @@
       </c>
       <c r="B130" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-01</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E130" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2298,10 +3600,20 @@
       </c>
       <c r="B131" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-29</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E131" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2315,10 +3627,20 @@
       </c>
       <c r="B132" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E132" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2332,10 +3654,20 @@
       </c>
       <c r="B133" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E133" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2349,10 +3681,20 @@
       </c>
       <c r="B134" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E134" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2366,10 +3708,20 @@
       </c>
       <c r="B135" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E135" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2383,10 +3735,20 @@
       </c>
       <c r="B136" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C136" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D136" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E136" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2400,10 +3762,20 @@
       </c>
       <c r="B137" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C137" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-26</t>
+        </is>
+      </c>
+      <c r="D137" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E137" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -2417,10 +3789,20 @@
       </c>
       <c r="B138" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C138" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-27</t>
+        </is>
+      </c>
+      <c r="D138" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E138" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2434,10 +3816,20 @@
       </c>
       <c r="B139" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C139" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-27</t>
+        </is>
+      </c>
+      <c r="D139" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E139" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2451,10 +3843,20 @@
       </c>
       <c r="B140" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C140" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-28</t>
+        </is>
+      </c>
+      <c r="D140" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E140" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2468,10 +3870,20 @@
       </c>
       <c r="B141" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C141" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-27</t>
+        </is>
+      </c>
+      <c r="D141" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E141" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2485,10 +3897,20 @@
       </c>
       <c r="B142" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C142" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-03</t>
+        </is>
+      </c>
+      <c r="D142" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E142" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2502,10 +3924,20 @@
       </c>
       <c r="B143" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C143" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-27</t>
+        </is>
+      </c>
+      <c r="D143" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E143" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2519,10 +3951,20 @@
       </c>
       <c r="B144" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C144" s="0" t="inlineStr">
+        <is>
+          <t>2016-02-27</t>
+        </is>
+      </c>
+      <c r="D144" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E144" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2536,10 +3978,20 @@
       </c>
       <c r="B145" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C145" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D145" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E145" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2553,10 +4005,20 @@
       </c>
       <c r="B146" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D146" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E146" s="0" t="inlineStr">
         <is>
           <t>庞旭正</t>
         </is>
@@ -2570,10 +4032,20 @@
       </c>
       <c r="B147" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C147" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D147" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E147" s="0" t="inlineStr">
         <is>
           <t>庞旭正</t>
         </is>
@@ -2587,10 +4059,20 @@
       </c>
       <c r="B148" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C148" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-12</t>
+        </is>
+      </c>
+      <c r="D148" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E148" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2604,10 +4086,20 @@
       </c>
       <c r="B149" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C149" s="0" t="inlineStr">
+        <is>
+          <t>2016-04-06</t>
+        </is>
+      </c>
+      <c r="D149" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E149" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2621,10 +4113,20 @@
       </c>
       <c r="B150" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C150" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D150" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E150" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2638,10 +4140,20 @@
       </c>
       <c r="B151" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D151" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E151" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2655,10 +4167,20 @@
       </c>
       <c r="B152" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C152" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D152" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E152" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2672,10 +4194,20 @@
       </c>
       <c r="B153" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C153" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-02</t>
+        </is>
+      </c>
+      <c r="D153" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E153" s="0" t="inlineStr">
         <is>
           <t>【驾本易】</t>
         </is>
@@ -2689,10 +4221,20 @@
       </c>
       <c r="B154" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C154" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-02</t>
+        </is>
+      </c>
+      <c r="D154" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E154" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2706,10 +4248,20 @@
       </c>
       <c r="B155" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D155" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E155" s="0" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
@@ -2723,10 +4275,20 @@
       </c>
       <c r="B156" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C156" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D156" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E156" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2740,10 +4302,20 @@
       </c>
       <c r="B157" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C157" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D157" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E157" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2757,10 +4329,20 @@
       </c>
       <c r="B158" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C158" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D158" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E158" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -2774,10 +4356,20 @@
       </c>
       <c r="B159" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C159" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D159" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E159" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2791,10 +4383,20 @@
       </c>
       <c r="B160" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C160" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D160" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E160" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2808,10 +4410,20 @@
       </c>
       <c r="B161" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C161" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D161" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E161" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2825,10 +4437,20 @@
       </c>
       <c r="B162" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C162" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-07</t>
+        </is>
+      </c>
+      <c r="D162" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E162" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2842,10 +4464,20 @@
       </c>
       <c r="B163" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C163" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D163" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E163" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2859,10 +4491,20 @@
       </c>
       <c r="B164" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C164" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-09</t>
+        </is>
+      </c>
+      <c r="D164" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E164" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -2876,10 +4518,20 @@
       </c>
       <c r="B165" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C165" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D165" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E165" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2893,10 +4545,20 @@
       </c>
       <c r="B166" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C166" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D166" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E166" s="0" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
@@ -2910,10 +4572,20 @@
       </c>
       <c r="B167" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C167" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-09</t>
+        </is>
+      </c>
+      <c r="D167" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E167" s="0" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
@@ -2927,10 +4599,20 @@
       </c>
       <c r="B168" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C168" s="0" t="inlineStr">
+        <is>
+          <t>2016-04-16</t>
+        </is>
+      </c>
+      <c r="D168" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E168" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -2944,10 +4626,20 @@
       </c>
       <c r="B169" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C169" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-12</t>
+        </is>
+      </c>
+      <c r="D169" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E169" s="0" t="inlineStr">
         <is>
           <t>【驾本易】</t>
         </is>
@@ -2961,10 +4653,20 @@
       </c>
       <c r="B170" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C170" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-12</t>
+        </is>
+      </c>
+      <c r="D170" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E170" s="0" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
@@ -2978,10 +4680,20 @@
       </c>
       <c r="B171" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C171" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-12</t>
+        </is>
+      </c>
+      <c r="D171" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E171" s="0" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
@@ -2995,10 +4707,20 @@
       </c>
       <c r="B172" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C172" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-12</t>
+        </is>
+      </c>
+      <c r="D172" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E172" s="0" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
@@ -3012,10 +4734,20 @@
       </c>
       <c r="B173" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C173" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-15</t>
+        </is>
+      </c>
+      <c r="D173" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E173" s="0" t="inlineStr">
         <is>
           <t>赵长伟</t>
         </is>
@@ -3029,10 +4761,20 @@
       </c>
       <c r="B174" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C174" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-16</t>
+        </is>
+      </c>
+      <c r="D174" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E174" s="0" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
@@ -3046,10 +4788,20 @@
       </c>
       <c r="B175" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C175" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-16</t>
+        </is>
+      </c>
+      <c r="D175" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E175" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -3063,10 +4815,20 @@
       </c>
       <c r="B176" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C176" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-18</t>
+        </is>
+      </c>
+      <c r="D176" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E176" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -3080,10 +4842,20 @@
       </c>
       <c r="B177" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C177" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-18</t>
+        </is>
+      </c>
+      <c r="D177" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E177" s="0" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
@@ -3097,10 +4869,20 @@
       </c>
       <c r="B178" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C178" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-18</t>
+        </is>
+      </c>
+      <c r="D178" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E178" s="0" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
@@ -3114,10 +4896,20 @@
       </c>
       <c r="B179" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C179" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-21</t>
+        </is>
+      </c>
+      <c r="D179" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E179" s="0" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
@@ -3131,10 +4923,20 @@
       </c>
       <c r="B180" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C180" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-23</t>
+        </is>
+      </c>
+      <c r="D180" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E180" s="0" t="inlineStr">
         <is>
           <t>朱振隆</t>
         </is>
@@ -3148,10 +4950,20 @@
       </c>
       <c r="B181" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C181" s="0" t="inlineStr">
+        <is>
+          <t>2016-04-29</t>
+        </is>
+      </c>
+      <c r="D181" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E181" s="0" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
@@ -3165,10 +4977,20 @@
       </c>
       <c r="B182" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C182" s="0" t="inlineStr">
+        <is>
+          <t>2016-05-05</t>
+        </is>
+      </c>
+      <c r="D182" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E182" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3182,10 +5004,20 @@
       </c>
       <c r="B183" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C183" s="0" t="inlineStr">
+        <is>
+          <t>2016-05-07</t>
+        </is>
+      </c>
+      <c r="D183" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E183" s="0" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
@@ -3199,10 +5031,20 @@
       </c>
       <c r="B184" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C184" s="0" t="inlineStr">
+        <is>
+          <t>2016-05-10</t>
+        </is>
+      </c>
+      <c r="D184" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E184" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3216,10 +5058,20 @@
       </c>
       <c r="B185" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C185" s="0" t="inlineStr">
+        <is>
+          <t>2016-05-10</t>
+        </is>
+      </c>
+      <c r="D185" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E185" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3233,10 +5085,20 @@
       </c>
       <c r="B186" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C186" s="0" t="inlineStr">
+        <is>
+          <t>2016-05-22</t>
+        </is>
+      </c>
+      <c r="D186" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E186" s="0" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
@@ -3250,10 +5112,20 @@
       </c>
       <c r="B187" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C187" s="0" t="inlineStr">
+        <is>
+          <t>2016-03-21</t>
+        </is>
+      </c>
+      <c r="D187" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E187" s="0" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
@@ -3267,10 +5139,20 @@
       </c>
       <c r="B188" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C188" s="0" t="inlineStr">
+        <is>
+          <t>2016-06-01</t>
+        </is>
+      </c>
+      <c r="D188" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E188" s="0" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
@@ -3284,10 +5166,20 @@
       </c>
       <c r="B189" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D189" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E189" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3301,10 +5193,20 @@
       </c>
       <c r="B190" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C190" s="0" t="inlineStr">
+        <is>
+          <t>2016-07-18</t>
+        </is>
+      </c>
+      <c r="D190" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E190" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3318,10 +5220,20 @@
       </c>
       <c r="B191" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C191" s="0" t="inlineStr">
+        <is>
+          <t>2016-07-18</t>
+        </is>
+      </c>
+      <c r="D191" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E191" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3335,10 +5247,20 @@
       </c>
       <c r="B192" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C192" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-27</t>
+        </is>
+      </c>
+      <c r="D192" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E192" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -3352,10 +5274,20 @@
       </c>
       <c r="B193" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D193" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E193" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
@@ -3369,10 +5301,20 @@
       </c>
       <c r="B194" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C194" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D194" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E194" s="0" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
@@ -3386,10 +5328,20 @@
       </c>
       <c r="B195" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已关闭</t>
         </is>
       </c>
       <c r="C195" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D195" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E195" s="0" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
@@ -3403,10 +5355,20 @@
       </c>
       <c r="B196" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>已报名</t>
         </is>
       </c>
       <c r="C196" s="0" t="inlineStr">
+        <is>
+          <t>2016-10-21</t>
+        </is>
+      </c>
+      <c r="D196" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E196" s="0" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>

--- a/public/files/simple.xlsx
+++ b/public/files/simple.xlsx
@@ -14,11 +14,17 @@
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Arial"/>
       <sz val="11"/>
       <family val="1"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <sz val="9"/>
+      <family val="1"/>
+      <b val="false"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" numFmtId="0" fontId="1" fillId="0" applyNumberFormat="false" applyFill="false" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0"/>
@@ -75,5300 +84,5300 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="6.389887640449439"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="9.68988764044944"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.22808988764045"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.72808988764045"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="5.22808988764045"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.92808988764045"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>姓名</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>状态</t>
         </is>
       </c>
-      <c r="C1" s="0" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>报名日期</t>
         </is>
       </c>
-      <c r="D1" s="0" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>原教练</t>
         </is>
       </c>
-      <c r="E1" s="0" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>现教练</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>叶超(外地)</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="0" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>宋淑利</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>2015-12-31</t>
         </is>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>许志聪</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>2016-01-06</t>
         </is>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>张田磊</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>李鑫</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>2016-01-20</t>
         </is>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>穆远亚</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>2015-12-19</t>
         </is>
       </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>李永强</t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>2015-12-19</t>
         </is>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>张帅</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>2015-12-24</t>
         </is>
       </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>詹凯文</t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>2015-12-28</t>
         </is>
       </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>代都</t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>2015-12-25</t>
         </is>
       </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>吴金风</t>
         </is>
       </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>2016-01-06</t>
         </is>
       </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E12" s="0" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>朱佳晖</t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>2015-12-22</t>
         </is>
       </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>苏瑞</t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>2015-12-22</t>
         </is>
       </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>刘思昊</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>2015-09-26</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
         <is>
           <t>袁杰</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="0" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>张元元</t>
         </is>
       </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>2015-09-25</t>
         </is>
       </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
         <is>
           <t>郭振兴</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>李钢</t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>2015-10-13</t>
         </is>
       </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>袁杰</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="0" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>刘珍</t>
         </is>
       </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>邓雅倩</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="0" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>叶文朝</t>
         </is>
       </c>
-      <c r="B20" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C20" s="0" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="0" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>何秀</t>
         </is>
       </c>
-      <c r="B21" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C21" s="0" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E21" s="0" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="0" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>胡豹</t>
         </is>
       </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="0" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>陈凯席</t>
         </is>
       </c>
-      <c r="B23" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C23" s="0" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D23" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E23" s="0" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="0" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>卢华南</t>
         </is>
       </c>
-      <c r="B24" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C24" s="0" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>2015-10-11</t>
         </is>
       </c>
-      <c r="D24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E24" s="0" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="0" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>张德叶</t>
         </is>
       </c>
-      <c r="B25" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C25" s="0" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
         <is>
           <t>2015-10-14</t>
         </is>
       </c>
-      <c r="D25" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E25" s="0" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="0" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>孔小莉</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C26" s="0" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>2015-10-14</t>
         </is>
       </c>
-      <c r="D26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E26" s="0" t="inlineStr">
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="0" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>梅云河</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C27" s="0" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
         <is>
           <t>2015-10-24</t>
         </is>
       </c>
-      <c r="D27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E27" s="0" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="0" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>喻晨星</t>
         </is>
       </c>
-      <c r="B28" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C28" s="0" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>2015-10-20</t>
         </is>
       </c>
-      <c r="D28" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E28" s="0" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="0" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>杨颖姗</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C29" s="0" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
         <is>
           <t>2015-10-20</t>
         </is>
       </c>
-      <c r="D29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E29" s="0" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="0" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>李婷婷</t>
         </is>
       </c>
-      <c r="B30" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C30" s="0" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
         <is>
           <t>2015-10-20</t>
         </is>
       </c>
-      <c r="D30" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E30" s="0" t="inlineStr">
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="0" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>胡晖</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C31" s="0" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>2015-10-16</t>
         </is>
       </c>
-      <c r="D31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E31" s="0" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="0" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>夏彩芸</t>
         </is>
       </c>
-      <c r="B32" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C32" s="0" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
         <is>
           <t>2015-10-15</t>
         </is>
       </c>
-      <c r="D32" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E32" s="0" t="inlineStr">
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="0" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>雷淑芬</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C33" s="0" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
         <is>
           <t>2015-10-16</t>
         </is>
       </c>
-      <c r="D33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E33" s="0" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="0" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>张雪雷</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C34" s="0" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>2015-10-21</t>
         </is>
       </c>
-      <c r="D34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E34" s="0" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="0" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>唐帅</t>
         </is>
       </c>
-      <c r="B35" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C35" s="0" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>2015-10-21</t>
         </is>
       </c>
-      <c r="D35" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E35" s="0" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="0" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>杨强</t>
         </is>
       </c>
-      <c r="B36" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C36" s="0" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>2015-10-21</t>
         </is>
       </c>
-      <c r="D36" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E36" s="0" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="0" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>李豪</t>
         </is>
       </c>
-      <c r="B37" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C37" s="0" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>2015-10-21</t>
         </is>
       </c>
-      <c r="D37" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E37" s="0" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="0" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>白玉清</t>
         </is>
       </c>
-      <c r="B38" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C38" s="0" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>2015-10-19</t>
         </is>
       </c>
-      <c r="D38" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E38" s="0" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="0" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>李青</t>
         </is>
       </c>
-      <c r="B39" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C39" s="0" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>2015-10-22</t>
         </is>
       </c>
-      <c r="D39" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E39" s="0" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>邹小珍</t>
         </is>
       </c>
-      <c r="B40" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C40" s="0" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>2015-10-22</t>
         </is>
       </c>
-      <c r="D40" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E40" s="0" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="0" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>呙亚慧</t>
         </is>
       </c>
-      <c r="B41" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C41" s="0" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>2015-10-22</t>
         </is>
       </c>
-      <c r="D41" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E41" s="0" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="0" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>李德全</t>
         </is>
       </c>
-      <c r="B42" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C42" s="0" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>2015-10-22</t>
         </is>
       </c>
-      <c r="D42" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E42" s="0" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="0" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>雷小云</t>
         </is>
       </c>
-      <c r="B43" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C43" s="0" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>2015-10-21</t>
         </is>
       </c>
-      <c r="D43" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E43" s="0" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="0" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>彭婷</t>
         </is>
       </c>
-      <c r="B44" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C44" s="0" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>2015-10-21</t>
         </is>
       </c>
-      <c r="D44" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E44" s="0" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="0" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>陈后全</t>
         </is>
       </c>
-      <c r="B45" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C45" s="0" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>2015-10-24</t>
         </is>
       </c>
-      <c r="D45" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E45" s="0" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="0" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>何文奇</t>
         </is>
       </c>
-      <c r="B46" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C46" s="0" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>2015-10-26</t>
         </is>
       </c>
-      <c r="D46" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E46" s="0" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="0" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>邹强</t>
         </is>
       </c>
-      <c r="B47" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C47" s="0" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>2015-10-27</t>
         </is>
       </c>
-      <c r="D47" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E47" s="0" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="0" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>梁清芸</t>
         </is>
       </c>
-      <c r="B48" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C48" s="0" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>2015-10-27</t>
         </is>
       </c>
-      <c r="D48" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E48" s="0" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>夏燕华</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="0" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>温作超</t>
         </is>
       </c>
-      <c r="B49" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>2015-10-28</t>
         </is>
       </c>
-      <c r="D49" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E49" s="0" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="0" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>胡凯</t>
         </is>
       </c>
-      <c r="B50" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C50" s="0" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>2015-11-04</t>
         </is>
       </c>
-      <c r="D50" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E50" s="0" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="0" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>窦锦鹏</t>
         </is>
       </c>
-      <c r="B51" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C51" s="0" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>2015-11-12</t>
         </is>
       </c>
-      <c r="D51" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E51" s="0" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="0" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>黎寒</t>
         </is>
       </c>
-      <c r="B52" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C52" s="0" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>2015-11-06</t>
         </is>
       </c>
-      <c r="D52" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E52" s="0" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="0" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>王丹丹</t>
         </is>
       </c>
-      <c r="B53" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C53" s="0" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>2015-11-11</t>
         </is>
       </c>
-      <c r="D53" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E53" s="0" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="0" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>郑莹莹</t>
         </is>
       </c>
-      <c r="B54" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C54" s="0" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>2015-11-14</t>
         </is>
       </c>
-      <c r="D54" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E54" s="0" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>谢巧均</t>
         </is>
       </c>
-      <c r="B55" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C55" s="0" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>2015-11-14</t>
         </is>
       </c>
-      <c r="D55" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E55" s="0" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>杨建新</t>
         </is>
       </c>
-      <c r="B56" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C56" s="0" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>2015-11-14</t>
         </is>
       </c>
-      <c r="D56" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E56" s="0" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t> 丁军</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>徐加泉</t>
         </is>
       </c>
-      <c r="B57" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C57" s="0" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>2015-11-15</t>
         </is>
       </c>
-      <c r="D57" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E57" s="0" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>佘海亮</t>
         </is>
       </c>
-      <c r="B58" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C58" s="0" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>2015-11-17</t>
         </is>
       </c>
-      <c r="D58" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E58" s="0" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0" t="inlineStr">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>涂明</t>
         </is>
       </c>
-      <c r="B59" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C59" s="0" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>2015-11-17</t>
         </is>
       </c>
-      <c r="D59" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E59" s="0" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>邓少芳</t>
         </is>
       </c>
-      <c r="B60" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C60" s="0" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>2015-11-19</t>
         </is>
       </c>
-      <c r="D60" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E60" s="0" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>张初</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>徐冬</t>
         </is>
       </c>
-      <c r="B61" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C61" s="0" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>2015-11-22</t>
         </is>
       </c>
-      <c r="D61" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E61" s="0" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0" t="inlineStr">
+      <c r="A62" s="3" t="inlineStr">
         <is>
           <t>刘丰</t>
         </is>
       </c>
-      <c r="B62" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C62" s="0" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>2015-11-23</t>
         </is>
       </c>
-      <c r="D62" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E62" s="0" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0" t="inlineStr">
+      <c r="A63" s="3" t="inlineStr">
         <is>
           <t>廖思宇</t>
         </is>
       </c>
-      <c r="B63" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C63" s="0" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>2015-11-26</t>
         </is>
       </c>
-      <c r="D63" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E63" s="0" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>王梦巧</t>
         </is>
       </c>
-      <c r="B64" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C64" s="0" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>2015-11-26</t>
         </is>
       </c>
-      <c r="D64" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E64" s="0" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0" t="inlineStr">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>梁亚文</t>
         </is>
       </c>
-      <c r="B65" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C65" s="0" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>2015-11-27</t>
         </is>
       </c>
-      <c r="D65" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E65" s="0" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>潘俞同</t>
         </is>
       </c>
-      <c r="B66" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C66" s="0" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t>2015-11-27</t>
         </is>
       </c>
-      <c r="D66" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E66" s="0" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
         <is>
           <t>张红英</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>陈明</t>
         </is>
       </c>
-      <c r="B67" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C67" s="0" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>2015-11-28</t>
         </is>
       </c>
-      <c r="D67" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E67" s="0" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0" t="inlineStr">
+      <c r="A68" s="3" t="inlineStr">
         <is>
           <t>唐甜</t>
         </is>
       </c>
-      <c r="B68" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C68" s="0" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
         <is>
           <t>2015-12-01</t>
         </is>
       </c>
-      <c r="D68" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E68" s="0" t="inlineStr">
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>梅艳雪</t>
         </is>
       </c>
-      <c r="B69" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C69" s="0" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>2015-12-03</t>
         </is>
       </c>
-      <c r="D69" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E69" s="0" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>孙然</t>
         </is>
       </c>
-      <c r="B70" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C70" s="0" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>2015-12-03</t>
         </is>
       </c>
-      <c r="D70" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E70" s="0" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>郭传宇</t>
         </is>
       </c>
-      <c r="B71" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C71" s="0" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
         <is>
           <t>2015-12-03</t>
         </is>
       </c>
-      <c r="D71" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E71" s="0" t="inlineStr">
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>吕松伟</t>
         </is>
       </c>
-      <c r="B72" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C72" s="0" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>2015-12-04</t>
         </is>
       </c>
-      <c r="D72" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E72" s="0" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0" t="inlineStr">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>唐玉滕</t>
         </is>
       </c>
-      <c r="B73" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C73" s="0" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>2015-12-05</t>
         </is>
       </c>
-      <c r="D73" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E73" s="0" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E73" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0" t="inlineStr">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>金妙</t>
         </is>
       </c>
-      <c r="B74" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C74" s="0" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t>2015-12-08</t>
         </is>
       </c>
-      <c r="D74" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E74" s="0" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>窦雪茹</t>
         </is>
       </c>
-      <c r="B75" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C75" s="0" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>2015-12-12</t>
         </is>
       </c>
-      <c r="D75" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E75" s="0" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0" t="inlineStr">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>王锦</t>
         </is>
       </c>
-      <c r="B76" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C76" s="0" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>2015-12-12</t>
         </is>
       </c>
-      <c r="D76" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E76" s="0" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0" t="inlineStr">
+      <c r="A77" s="3" t="inlineStr">
         <is>
           <t>王萍</t>
         </is>
       </c>
-      <c r="B77" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C77" s="0" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
         <is>
           <t>2015-12-12</t>
         </is>
       </c>
-      <c r="D77" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E77" s="0" t="inlineStr">
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0" t="inlineStr">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>李聿珩</t>
         </is>
       </c>
-      <c r="B78" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C78" s="0" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
         <is>
           <t>2015-12-17</t>
         </is>
       </c>
-      <c r="D78" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E78" s="0" t="inlineStr">
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0" t="inlineStr">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>李思奥</t>
         </is>
       </c>
-      <c r="B79" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C79" s="0" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
         <is>
           <t>2015-12-18</t>
         </is>
       </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E79" s="0" t="inlineStr">
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0" t="inlineStr">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>钟东昌</t>
         </is>
       </c>
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C80" s="0" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
         <is>
           <t>2015-12-21</t>
         </is>
       </c>
-      <c r="D80" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E80" s="0" t="inlineStr">
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>刘超群</t>
         </is>
       </c>
-      <c r="B81" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C81" s="0" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>2016-02-24</t>
         </is>
       </c>
-      <c r="D81" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E81" s="0" t="inlineStr">
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E81" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>关沛文</t>
         </is>
       </c>
-      <c r="B82" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C82" s="0" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
         <is>
           <t>2015-12-24</t>
         </is>
       </c>
-      <c r="D82" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E82" s="0" t="inlineStr">
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>程慧</t>
         </is>
       </c>
-      <c r="B83" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C83" s="0" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D83" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E83" s="0" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
         <is>
           <t>【驾本易】</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>陈晗</t>
         </is>
       </c>
-      <c r="B84" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C84" s="0" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
         <is>
           <t>2016-01-15</t>
         </is>
       </c>
-      <c r="D84" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E84" s="0" t="inlineStr">
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0" t="inlineStr">
+      <c r="A85" s="3" t="inlineStr">
         <is>
           <t>江婷</t>
         </is>
       </c>
-      <c r="B85" s="0" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D85" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E85" s="0" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E85" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0" t="inlineStr">
+      <c r="A86" s="3" t="inlineStr">
         <is>
           <t>张睛</t>
         </is>
       </c>
-      <c r="B86" s="0" t="inlineStr">
+      <c r="B86" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C86" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D86" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E86" s="0" t="inlineStr">
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>柯奇云</t>
         </is>
       </c>
-      <c r="B87" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C87" s="0" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
         <is>
           <t>2015-12-25</t>
         </is>
       </c>
-      <c r="D87" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E87" s="0" t="inlineStr">
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E87" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0" t="inlineStr">
+      <c r="A88" s="3" t="inlineStr">
         <is>
           <t>黄勤格</t>
         </is>
       </c>
-      <c r="B88" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C88" s="0" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
         <is>
           <t>2015-12-26</t>
         </is>
       </c>
-      <c r="D88" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E88" s="0" t="inlineStr">
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>周瑛达</t>
         </is>
       </c>
-      <c r="B89" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C89" s="0" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
         <is>
           <t>2015-12-29</t>
         </is>
       </c>
-      <c r="D89" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E89" s="0" t="inlineStr">
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E89" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>梅枭央</t>
         </is>
       </c>
-      <c r="B90" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C90" s="0" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
         <is>
           <t>2015-12-31</t>
         </is>
       </c>
-      <c r="D90" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E90" s="0" t="inlineStr">
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>何群</t>
         </is>
       </c>
-      <c r="B91" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C91" s="0" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
         <is>
           <t>2015-12-24</t>
         </is>
       </c>
-      <c r="D91" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E91" s="0" t="inlineStr">
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E91" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>张屹哲</t>
         </is>
       </c>
-      <c r="B92" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C92" s="0" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
         <is>
           <t>2015-12-31</t>
         </is>
       </c>
-      <c r="D92" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E92" s="0" t="inlineStr">
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0" t="inlineStr">
+      <c r="A93" s="3" t="inlineStr">
         <is>
           <t>王超</t>
         </is>
       </c>
-      <c r="B93" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C93" s="0" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
         <is>
           <t>2016-01-10</t>
         </is>
       </c>
-      <c r="D93" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E93" s="0" t="inlineStr">
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E93" s="3" t="inlineStr">
         <is>
           <t>张初</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0" t="inlineStr">
+      <c r="A94" s="3" t="inlineStr">
         <is>
           <t>刘雨</t>
         </is>
       </c>
-      <c r="B94" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C94" s="0" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
         <is>
           <t>2016-01-06</t>
         </is>
       </c>
-      <c r="D94" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E94" s="0" t="inlineStr">
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>朱朋辉</t>
         </is>
       </c>
-      <c r="B95" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C95" s="0" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
         <is>
           <t>2016-08-31</t>
         </is>
       </c>
-      <c r="D95" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E95" s="0" t="inlineStr">
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E95" s="3" t="inlineStr">
         <is>
           <t>陈志欣</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>陈俊明</t>
         </is>
       </c>
-      <c r="B96" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C96" s="0" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
         <is>
           <t>2015-12-24</t>
         </is>
       </c>
-      <c r="D96" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E96" s="0" t="inlineStr">
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0" t="inlineStr">
+      <c r="A97" s="3" t="inlineStr">
         <is>
           <t>黄迪</t>
         </is>
       </c>
-      <c r="B97" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C97" s="0" t="inlineStr">
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
         <is>
           <t>2016-01-14</t>
         </is>
       </c>
-      <c r="D97" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E97" s="0" t="inlineStr">
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E97" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
         <is>
           <t>母坤</t>
         </is>
       </c>
-      <c r="B98" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C98" s="0" t="inlineStr">
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>2016-01-14</t>
         </is>
       </c>
-      <c r="D98" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E98" s="0" t="inlineStr">
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0" t="inlineStr">
+      <c r="A99" s="3" t="inlineStr">
         <is>
           <t>曹驰</t>
         </is>
       </c>
-      <c r="B99" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C99" s="0" t="inlineStr">
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
         <is>
           <t>2016-01-15</t>
         </is>
       </c>
-      <c r="D99" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E99" s="0" t="inlineStr">
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0" t="inlineStr">
+      <c r="A100" s="3" t="inlineStr">
         <is>
           <t>苏恒</t>
         </is>
       </c>
-      <c r="B100" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C100" s="0" t="inlineStr">
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
         <is>
           <t>2016-01-26</t>
         </is>
       </c>
-      <c r="D100" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E100" s="0" t="inlineStr">
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0" t="inlineStr">
+      <c r="A101" s="3" t="inlineStr">
         <is>
           <t>胡进</t>
         </is>
       </c>
-      <c r="B101" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C101" s="0" t="inlineStr">
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
         <is>
           <t>2016-02-22</t>
         </is>
       </c>
-      <c r="D101" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E101" s="0" t="inlineStr">
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0" t="inlineStr">
+      <c r="A102" s="3" t="inlineStr">
         <is>
           <t>柯毕成</t>
         </is>
       </c>
-      <c r="B102" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C102" s="0" t="inlineStr">
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
         <is>
           <t>2016-01-28</t>
         </is>
       </c>
-      <c r="D102" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E102" s="0" t="inlineStr">
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0" t="inlineStr">
+      <c r="A103" s="3" t="inlineStr">
         <is>
           <t>彭光学</t>
         </is>
       </c>
-      <c r="B103" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C103" s="0" t="inlineStr">
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
         <is>
           <t>2016-01-26</t>
         </is>
       </c>
-      <c r="D103" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E103" s="0" t="inlineStr">
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E103" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0" t="inlineStr">
+      <c r="A104" s="3" t="inlineStr">
         <is>
           <t>李鑫波</t>
         </is>
       </c>
-      <c r="B104" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C104" s="0" t="inlineStr">
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
         <is>
           <t>2016-03-05</t>
         </is>
       </c>
-      <c r="D104" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E104" s="0" t="inlineStr">
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0" t="inlineStr">
+      <c r="A105" s="3" t="inlineStr">
         <is>
           <t>李鹏</t>
         </is>
       </c>
-      <c r="B105" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C105" s="0" t="inlineStr">
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
         <is>
           <t>2016-02-01</t>
         </is>
       </c>
-      <c r="D105" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E105" s="0" t="inlineStr">
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0" t="inlineStr">
+      <c r="A106" s="3" t="inlineStr">
         <is>
           <t>唐杰</t>
         </is>
       </c>
-      <c r="B106" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C106" s="0" t="inlineStr">
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
         <is>
           <t>2016-02-20</t>
         </is>
       </c>
-      <c r="D106" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E106" s="0" t="inlineStr">
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0" t="inlineStr">
+      <c r="A107" s="3" t="inlineStr">
         <is>
           <t>蔡思倩</t>
         </is>
       </c>
-      <c r="B107" s="0" t="inlineStr">
+      <c r="B107" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C107" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D107" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E107" s="0" t="inlineStr">
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E107" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0" t="inlineStr">
+      <c r="A108" s="3" t="inlineStr">
         <is>
           <t>张朋</t>
         </is>
       </c>
-      <c r="B108" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C108" s="0" t="inlineStr">
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
         <is>
           <t>2016-02-20</t>
         </is>
       </c>
-      <c r="D108" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E108" s="0" t="inlineStr">
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0" t="inlineStr">
+      <c r="A109" s="3" t="inlineStr">
         <is>
           <t>籍晓岚</t>
         </is>
       </c>
-      <c r="B109" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C109" s="0" t="inlineStr">
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
         <is>
           <t>2016-02-22</t>
         </is>
       </c>
-      <c r="D109" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E109" s="0" t="inlineStr">
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0" t="inlineStr">
+      <c r="A110" s="3" t="inlineStr">
         <is>
           <t>邬乔桥</t>
         </is>
       </c>
-      <c r="B110" s="0" t="inlineStr">
+      <c r="B110" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C110" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D110" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E110" s="0" t="inlineStr">
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0" t="inlineStr">
+      <c r="A111" s="3" t="inlineStr">
         <is>
           <t>张弛</t>
         </is>
       </c>
-      <c r="B111" s="0" t="inlineStr">
+      <c r="B111" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C111" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D111" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E111" s="0" t="inlineStr">
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0" t="inlineStr">
+      <c r="A112" s="3" t="inlineStr">
         <is>
           <t>崔岳飞</t>
         </is>
       </c>
-      <c r="B112" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C112" s="0" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
         <is>
           <t>2016-02-20</t>
         </is>
       </c>
-      <c r="D112" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E112" s="0" t="inlineStr">
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0" t="inlineStr">
+      <c r="A113" s="3" t="inlineStr">
         <is>
           <t>刘侃</t>
         </is>
       </c>
-      <c r="B113" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C113" s="0" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
         <is>
           <t>2016-02-20</t>
         </is>
       </c>
-      <c r="D113" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E113" s="0" t="inlineStr">
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0" t="inlineStr">
+      <c r="A114" s="3" t="inlineStr">
         <is>
           <t>杨雅文</t>
         </is>
       </c>
-      <c r="B114" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C114" s="0" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
         <is>
           <t>2016-02-29</t>
         </is>
       </c>
-      <c r="D114" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E114" s="0" t="inlineStr">
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
         <is>
           <t>庞旭正</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0" t="inlineStr">
+      <c r="A115" s="3" t="inlineStr">
         <is>
           <t>唐世全</t>
         </is>
       </c>
-      <c r="B115" s="0" t="inlineStr">
+      <c r="B115" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C115" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D115" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E115" s="0" t="inlineStr">
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E115" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0" t="inlineStr">
+      <c r="A116" s="3" t="inlineStr">
         <is>
           <t>龚振</t>
         </is>
       </c>
-      <c r="B116" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C116" s="0" t="inlineStr">
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
         <is>
           <t>2016-02-22</t>
         </is>
       </c>
-      <c r="D116" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E116" s="0" t="inlineStr">
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0" t="inlineStr">
+      <c r="A117" s="3" t="inlineStr">
         <is>
           <t>刘悦</t>
         </is>
       </c>
-      <c r="B117" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C117" s="0" t="inlineStr">
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D117" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E117" s="0" t="inlineStr">
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0" t="inlineStr">
+      <c r="A118" s="3" t="inlineStr">
         <is>
           <t>陈彩薇</t>
         </is>
       </c>
-      <c r="B118" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C118" s="0" t="inlineStr">
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
         <is>
           <t>2016-02-22</t>
         </is>
       </c>
-      <c r="D118" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E118" s="0" t="inlineStr">
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
         <is>
           <t>张初</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0" t="inlineStr">
+      <c r="A119" s="3" t="inlineStr">
         <is>
           <t>张雄威</t>
         </is>
       </c>
-      <c r="B119" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C119" s="0" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
         <is>
           <t>2016-02-22</t>
         </is>
       </c>
-      <c r="D119" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E119" s="0" t="inlineStr">
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0" t="inlineStr">
+      <c r="A120" s="3" t="inlineStr">
         <is>
           <t>亓科云</t>
         </is>
       </c>
-      <c r="B120" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C120" s="0" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
         <is>
           <t>2016-02-25</t>
         </is>
       </c>
-      <c r="D120" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E120" s="0" t="inlineStr">
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0" t="inlineStr">
+      <c r="A121" s="3" t="inlineStr">
         <is>
           <t>许德州</t>
         </is>
       </c>
-      <c r="B121" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C121" s="0" t="inlineStr">
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D121" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E121" s="0" t="inlineStr">
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0" t="inlineStr">
+      <c r="A122" s="3" t="inlineStr">
         <is>
           <t>喻同学</t>
         </is>
       </c>
-      <c r="B122" s="0" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C122" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D122" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E122" s="0" t="inlineStr">
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0" t="inlineStr">
+      <c r="A123" s="3" t="inlineStr">
         <is>
           <t>刘文豪</t>
         </is>
       </c>
-      <c r="B123" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C123" s="0" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
         <is>
           <t>2016-02-27</t>
         </is>
       </c>
-      <c r="D123" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E123" s="0" t="inlineStr">
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
         <is>
           <t>郑正勇</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0" t="inlineStr">
+      <c r="A124" s="3" t="inlineStr">
         <is>
           <t>朱莓</t>
         </is>
       </c>
-      <c r="B124" s="0" t="inlineStr">
+      <c r="B124" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C124" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D124" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E124" s="0" t="inlineStr">
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0" t="inlineStr">
+      <c r="A125" s="3" t="inlineStr">
         <is>
           <t>钮振嘉</t>
         </is>
       </c>
-      <c r="B125" s="0" t="inlineStr">
+      <c r="B125" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C125" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D125" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E125" s="0" t="inlineStr">
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0" t="inlineStr">
+      <c r="A126" s="3" t="inlineStr">
         <is>
           <t>胡宏炜</t>
         </is>
       </c>
-      <c r="B126" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C126" s="0" t="inlineStr">
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
         <is>
           <t>2016-02-24</t>
         </is>
       </c>
-      <c r="D126" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E126" s="0" t="inlineStr">
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0" t="inlineStr">
+      <c r="A127" s="3" t="inlineStr">
         <is>
           <t>罗成</t>
         </is>
       </c>
-      <c r="B127" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C127" s="0" t="inlineStr">
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
         <is>
           <t>2016-02-24</t>
         </is>
       </c>
-      <c r="D127" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E127" s="0" t="inlineStr">
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E127" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0" t="inlineStr">
+      <c r="A128" s="3" t="inlineStr">
         <is>
           <t>范乐迪</t>
         </is>
       </c>
-      <c r="B128" s="0" t="inlineStr">
+      <c r="B128" s="3" t="inlineStr">
         <is>
           <t>联系中</t>
         </is>
       </c>
-      <c r="C128" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D128" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E128" s="0" t="inlineStr">
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0" t="inlineStr">
+      <c r="A129" s="3" t="inlineStr">
         <is>
           <t>谢旨涵</t>
         </is>
       </c>
-      <c r="B129" s="0" t="inlineStr">
+      <c r="B129" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C129" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D129" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E129" s="0" t="inlineStr">
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E129" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0" t="inlineStr">
+      <c r="A130" s="3" t="inlineStr">
         <is>
           <t>夏冬</t>
         </is>
       </c>
-      <c r="B130" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C130" s="0" t="inlineStr">
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
         <is>
           <t>2016-03-01</t>
         </is>
       </c>
-      <c r="D130" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E130" s="0" t="inlineStr">
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0" t="inlineStr">
+      <c r="A131" s="3" t="inlineStr">
         <is>
           <t>陶鑫</t>
         </is>
       </c>
-      <c r="B131" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C131" s="0" t="inlineStr">
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
         <is>
           <t>2016-02-29</t>
         </is>
       </c>
-      <c r="D131" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E131" s="0" t="inlineStr">
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0" t="inlineStr">
+      <c r="A132" s="3" t="inlineStr">
         <is>
           <t>徐彪</t>
         </is>
       </c>
-      <c r="B132" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C132" s="0" t="inlineStr">
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D132" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E132" s="0" t="inlineStr">
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0" t="inlineStr">
+      <c r="A133" s="3" t="inlineStr">
         <is>
           <t>焦哲</t>
         </is>
       </c>
-      <c r="B133" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C133" s="0" t="inlineStr">
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D133" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E133" s="0" t="inlineStr">
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E133" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0" t="inlineStr">
+      <c r="A134" s="3" t="inlineStr">
         <is>
           <t>苏杰</t>
         </is>
       </c>
-      <c r="B134" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C134" s="0" t="inlineStr">
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D134" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E134" s="0" t="inlineStr">
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="0" t="inlineStr">
+      <c r="A135" s="3" t="inlineStr">
         <is>
           <t>戴俊明</t>
         </is>
       </c>
-      <c r="B135" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C135" s="0" t="inlineStr">
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D135" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E135" s="0" t="inlineStr">
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0" t="inlineStr">
+      <c r="A136" s="3" t="inlineStr">
         <is>
           <t>史梦杰</t>
         </is>
       </c>
-      <c r="B136" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C136" s="0" t="inlineStr">
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D136" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E136" s="0" t="inlineStr">
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="0" t="inlineStr">
+      <c r="A137" s="3" t="inlineStr">
         <is>
           <t>陈孜学</t>
         </is>
       </c>
-      <c r="B137" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C137" s="0" t="inlineStr">
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
         <is>
           <t>2016-02-26</t>
         </is>
       </c>
-      <c r="D137" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E137" s="0" t="inlineStr">
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E137" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0" t="inlineStr">
+      <c r="A138" s="3" t="inlineStr">
         <is>
           <t>倪伟</t>
         </is>
       </c>
-      <c r="B138" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C138" s="0" t="inlineStr">
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
         <is>
           <t>2016-02-27</t>
         </is>
       </c>
-      <c r="D138" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E138" s="0" t="inlineStr">
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0" t="inlineStr">
+      <c r="A139" s="3" t="inlineStr">
         <is>
           <t>王聚幸</t>
         </is>
       </c>
-      <c r="B139" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C139" s="0" t="inlineStr">
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
         <is>
           <t>2016-02-27</t>
         </is>
       </c>
-      <c r="D139" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E139" s="0" t="inlineStr">
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0" t="inlineStr">
+      <c r="A140" s="3" t="inlineStr">
         <is>
           <t>陈克雄</t>
         </is>
       </c>
-      <c r="B140" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C140" s="0" t="inlineStr">
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
         <is>
           <t>2016-02-28</t>
         </is>
       </c>
-      <c r="D140" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E140" s="0" t="inlineStr">
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="0" t="inlineStr">
+      <c r="A141" s="3" t="inlineStr">
         <is>
           <t>李松蔓</t>
         </is>
       </c>
-      <c r="B141" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C141" s="0" t="inlineStr">
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
         <is>
           <t>2016-02-27</t>
         </is>
       </c>
-      <c r="D141" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E141" s="0" t="inlineStr">
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0" t="inlineStr">
+      <c r="A142" s="3" t="inlineStr">
         <is>
           <t>邓辉</t>
         </is>
       </c>
-      <c r="B142" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C142" s="0" t="inlineStr">
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
         <is>
           <t>2016-03-03</t>
         </is>
       </c>
-      <c r="D142" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E142" s="0" t="inlineStr">
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0" t="inlineStr">
+      <c r="A143" s="3" t="inlineStr">
         <is>
           <t>朱诗雨</t>
         </is>
       </c>
-      <c r="B143" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C143" s="0" t="inlineStr">
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
         <is>
           <t>2016-02-27</t>
         </is>
       </c>
-      <c r="D143" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E143" s="0" t="inlineStr">
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0" t="inlineStr">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>张晓青</t>
         </is>
       </c>
-      <c r="B144" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C144" s="0" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
         <is>
           <t>2016-02-27</t>
         </is>
       </c>
-      <c r="D144" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E144" s="0" t="inlineStr">
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="0" t="inlineStr">
+      <c r="A145" s="3" t="inlineStr">
         <is>
           <t>张鹏程</t>
         </is>
       </c>
-      <c r="B145" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C145" s="0" t="inlineStr">
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D145" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E145" s="0" t="inlineStr">
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E145" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="0" t="inlineStr">
+      <c r="A146" s="3" t="inlineStr">
         <is>
           <t>孙培培</t>
         </is>
       </c>
-      <c r="B146" s="0" t="inlineStr">
+      <c r="B146" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C146" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D146" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E146" s="0" t="inlineStr">
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
         <is>
           <t>庞旭正</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="0" t="inlineStr">
+      <c r="A147" s="3" t="inlineStr">
         <is>
           <t>孙常宝</t>
         </is>
       </c>
-      <c r="B147" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C147" s="0" t="inlineStr">
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D147" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E147" s="0" t="inlineStr">
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E147" s="3" t="inlineStr">
         <is>
           <t>庞旭正</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="0" t="inlineStr">
+      <c r="A148" s="3" t="inlineStr">
         <is>
           <t>李玉炎</t>
         </is>
       </c>
-      <c r="B148" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C148" s="0" t="inlineStr">
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
         <is>
           <t>2016-03-12</t>
         </is>
       </c>
-      <c r="D148" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E148" s="0" t="inlineStr">
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="0" t="inlineStr">
+      <c r="A149" s="3" t="inlineStr">
         <is>
           <t>祝业盼</t>
         </is>
       </c>
-      <c r="B149" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C149" s="0" t="inlineStr">
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
         <is>
           <t>2016-04-06</t>
         </is>
       </c>
-      <c r="D149" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E149" s="0" t="inlineStr">
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E149" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="0" t="inlineStr">
+      <c r="A150" s="3" t="inlineStr">
         <is>
           <t>邱浩杰</t>
         </is>
       </c>
-      <c r="B150" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C150" s="0" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D150" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E150" s="0" t="inlineStr">
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="0" t="inlineStr">
+      <c r="A151" s="3" t="inlineStr">
         <is>
           <t>肖伟翔</t>
         </is>
       </c>
-      <c r="B151" s="0" t="inlineStr">
+      <c r="B151" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C151" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D151" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E151" s="0" t="inlineStr">
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="0" t="inlineStr">
+      <c r="A152" s="3" t="inlineStr">
         <is>
           <t>潘鹏</t>
         </is>
       </c>
-      <c r="B152" s="0" t="inlineStr">
+      <c r="B152" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C152" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D152" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E152" s="0" t="inlineStr">
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="0" t="inlineStr">
+      <c r="A153" s="3" t="inlineStr">
         <is>
           <t>周林</t>
         </is>
       </c>
-      <c r="B153" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C153" s="0" t="inlineStr">
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
         <is>
           <t>2016-03-02</t>
         </is>
       </c>
-      <c r="D153" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E153" s="0" t="inlineStr">
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
         <is>
           <t>【驾本易】</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="0" t="inlineStr">
+      <c r="A154" s="3" t="inlineStr">
         <is>
           <t>王中辉</t>
         </is>
       </c>
-      <c r="B154" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C154" s="0" t="inlineStr">
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
         <is>
           <t>2016-03-02</t>
         </is>
       </c>
-      <c r="D154" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E154" s="0" t="inlineStr">
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="0" t="inlineStr">
+      <c r="A155" s="3" t="inlineStr">
         <is>
           <t>王晓萌</t>
         </is>
       </c>
-      <c r="B155" s="0" t="inlineStr">
+      <c r="B155" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C155" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D155" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E155" s="0" t="inlineStr">
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="0" t="inlineStr">
+      <c r="A156" s="3" t="inlineStr">
         <is>
           <t>赵珍慧</t>
         </is>
       </c>
-      <c r="B156" s="0" t="inlineStr">
+      <c r="B156" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C156" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D156" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E156" s="0" t="inlineStr">
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="0" t="inlineStr">
+      <c r="A157" s="3" t="inlineStr">
         <is>
           <t>胡雄锋</t>
         </is>
       </c>
-      <c r="B157" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C157" s="0" t="inlineStr">
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D157" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E157" s="0" t="inlineStr">
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="0" t="inlineStr">
+      <c r="A158" s="3" t="inlineStr">
         <is>
           <t>徐家展</t>
         </is>
       </c>
-      <c r="B158" s="0" t="inlineStr">
+      <c r="B158" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C158" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D158" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E158" s="0" t="inlineStr">
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="0" t="inlineStr">
+      <c r="A159" s="3" t="inlineStr">
         <is>
           <t>顾珺</t>
         </is>
       </c>
-      <c r="B159" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C159" s="0" t="inlineStr">
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D159" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E159" s="0" t="inlineStr">
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="0" t="inlineStr">
+      <c r="A160" s="3" t="inlineStr">
         <is>
           <t>冯泽宇</t>
         </is>
       </c>
-      <c r="B160" s="0" t="inlineStr">
+      <c r="B160" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C160" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D160" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E160" s="0" t="inlineStr">
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="0" t="inlineStr">
+      <c r="A161" s="3" t="inlineStr">
         <is>
           <t>邹梦琦</t>
         </is>
       </c>
-      <c r="B161" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C161" s="0" t="inlineStr">
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D161" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E161" s="0" t="inlineStr">
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="0" t="inlineStr">
+      <c r="A162" s="3" t="inlineStr">
         <is>
           <t>董勇涛</t>
         </is>
       </c>
-      <c r="B162" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C162" s="0" t="inlineStr">
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
         <is>
           <t>2016-03-07</t>
         </is>
       </c>
-      <c r="D162" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E162" s="0" t="inlineStr">
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="0" t="inlineStr">
+      <c r="A163" s="3" t="inlineStr">
         <is>
           <t>高一铖</t>
         </is>
       </c>
-      <c r="B163" s="0" t="inlineStr">
+      <c r="B163" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C163" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D163" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E163" s="0" t="inlineStr">
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="0" t="inlineStr">
+      <c r="A164" s="3" t="inlineStr">
         <is>
           <t>陈必成</t>
         </is>
       </c>
-      <c r="B164" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C164" s="0" t="inlineStr">
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
         <is>
           <t>2016-03-09</t>
         </is>
       </c>
-      <c r="D164" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E164" s="0" t="inlineStr">
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="0" t="inlineStr">
+      <c r="A165" s="3" t="inlineStr">
         <is>
           <t>火登翔</t>
         </is>
       </c>
-      <c r="B165" s="0" t="inlineStr">
+      <c r="B165" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C165" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D165" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E165" s="0" t="inlineStr">
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E165" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="0" t="inlineStr">
+      <c r="A166" s="3" t="inlineStr">
         <is>
           <t>刘武标</t>
         </is>
       </c>
-      <c r="B166" s="0" t="inlineStr">
+      <c r="B166" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C166" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D166" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E166" s="0" t="inlineStr">
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
         <is>
           <t>芦勇</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="0" t="inlineStr">
+      <c r="A167" s="3" t="inlineStr">
         <is>
           <t>繆磊</t>
         </is>
       </c>
-      <c r="B167" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C167" s="0" t="inlineStr">
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
         <is>
           <t>2016-03-09</t>
         </is>
       </c>
-      <c r="D167" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E167" s="0" t="inlineStr">
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr">
         <is>
           <t>程明渊</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="0" t="inlineStr">
+      <c r="A168" s="3" t="inlineStr">
         <is>
           <t>谭浄</t>
         </is>
       </c>
-      <c r="B168" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C168" s="0" t="inlineStr">
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
         <is>
           <t>2016-04-16</t>
         </is>
       </c>
-      <c r="D168" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E168" s="0" t="inlineStr">
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="0" t="inlineStr">
+      <c r="A169" s="3" t="inlineStr">
         <is>
           <t>程娟</t>
         </is>
       </c>
-      <c r="B169" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C169" s="0" t="inlineStr">
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
         <is>
           <t>2016-03-12</t>
         </is>
       </c>
-      <c r="D169" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E169" s="0" t="inlineStr">
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr">
         <is>
           <t>【驾本易】</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="0" t="inlineStr">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>沈礼思</t>
         </is>
       </c>
-      <c r="B170" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C170" s="0" t="inlineStr">
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
         <is>
           <t>2016-03-12</t>
         </is>
       </c>
-      <c r="D170" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E170" s="0" t="inlineStr">
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="0" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
         <is>
           <t>王科</t>
         </is>
       </c>
-      <c r="B171" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C171" s="0" t="inlineStr">
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
         <is>
           <t>2016-03-12</t>
         </is>
       </c>
-      <c r="D171" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E171" s="0" t="inlineStr">
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="0" t="inlineStr">
+      <c r="A172" s="3" t="inlineStr">
         <is>
           <t>万海鹏</t>
         </is>
       </c>
-      <c r="B172" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C172" s="0" t="inlineStr">
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
         <is>
           <t>2016-03-12</t>
         </is>
       </c>
-      <c r="D172" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E172" s="0" t="inlineStr">
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="0" t="inlineStr">
+      <c r="A173" s="3" t="inlineStr">
         <is>
           <t>钟宇轩</t>
         </is>
       </c>
-      <c r="B173" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C173" s="0" t="inlineStr">
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
         <is>
           <t>2016-03-15</t>
         </is>
       </c>
-      <c r="D173" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E173" s="0" t="inlineStr">
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr">
         <is>
           <t>赵长伟</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="0" t="inlineStr">
+      <c r="A174" s="3" t="inlineStr">
         <is>
           <t>童剑</t>
         </is>
       </c>
-      <c r="B174" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C174" s="0" t="inlineStr">
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
         <is>
           <t>2016-03-16</t>
         </is>
       </c>
-      <c r="D174" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E174" s="0" t="inlineStr">
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
         <is>
           <t>郑孝欢</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="0" t="inlineStr">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>陈皓跃</t>
         </is>
       </c>
-      <c r="B175" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C175" s="0" t="inlineStr">
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
         <is>
           <t>2016-03-16</t>
         </is>
       </c>
-      <c r="D175" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E175" s="0" t="inlineStr">
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="0" t="inlineStr">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>王希璞</t>
         </is>
       </c>
-      <c r="B176" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C176" s="0" t="inlineStr">
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
         <is>
           <t>2016-03-18</t>
         </is>
       </c>
-      <c r="D176" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E176" s="0" t="inlineStr">
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="0" t="inlineStr">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>胡蔓清</t>
         </is>
       </c>
-      <c r="B177" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C177" s="0" t="inlineStr">
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
         <is>
           <t>2016-03-18</t>
         </is>
       </c>
-      <c r="D177" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E177" s="0" t="inlineStr">
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="0" t="inlineStr">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>朱鹏超</t>
         </is>
       </c>
-      <c r="B178" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C178" s="0" t="inlineStr">
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
         <is>
           <t>2016-03-18</t>
         </is>
       </c>
-      <c r="D178" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E178" s="0" t="inlineStr">
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="0" t="inlineStr">
+      <c r="A179" s="3" t="inlineStr">
         <is>
           <t>谌先博</t>
         </is>
       </c>
-      <c r="B179" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C179" s="0" t="inlineStr">
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
         <is>
           <t>2016-03-21</t>
         </is>
       </c>
-      <c r="D179" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E179" s="0" t="inlineStr">
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="0" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
         <is>
           <t>江哲</t>
         </is>
       </c>
-      <c r="B180" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C180" s="0" t="inlineStr">
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
         <is>
           <t>2016-03-23</t>
         </is>
       </c>
-      <c r="D180" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E180" s="0" t="inlineStr">
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
         <is>
           <t>朱振隆</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="0" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
         <is>
           <t>毛一丰</t>
         </is>
       </c>
-      <c r="B181" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C181" s="0" t="inlineStr">
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
         <is>
           <t>2016-04-29</t>
         </is>
       </c>
-      <c r="D181" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E181" s="0" t="inlineStr">
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
         <is>
           <t>罗恒</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="0" t="inlineStr">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>刘荣</t>
         </is>
       </c>
-      <c r="B182" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C182" s="0" t="inlineStr">
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
         <is>
           <t>2016-05-05</t>
         </is>
       </c>
-      <c r="D182" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E182" s="0" t="inlineStr">
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="0" t="inlineStr">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>孔威</t>
         </is>
       </c>
-      <c r="B183" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C183" s="0" t="inlineStr">
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t>2016-05-07</t>
         </is>
       </c>
-      <c r="D183" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E183" s="0" t="inlineStr">
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
         <is>
           <t>吴卫权</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="0" t="inlineStr">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>骆敏</t>
         </is>
       </c>
-      <c r="B184" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C184" s="0" t="inlineStr">
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="D184" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E184" s="0" t="inlineStr">
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="0" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>申黄倩</t>
         </is>
       </c>
-      <c r="B185" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C185" s="0" t="inlineStr">
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="D185" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E185" s="0" t="inlineStr">
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="0" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>李宁</t>
         </is>
       </c>
-      <c r="B186" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C186" s="0" t="inlineStr">
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
         <is>
           <t>2016-05-22</t>
         </is>
       </c>
-      <c r="D186" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E186" s="0" t="inlineStr">
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr">
         <is>
           <t>高礼彪</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="0" t="inlineStr">
+      <c r="A187" s="3" t="inlineStr">
         <is>
           <t>洪浩</t>
         </is>
       </c>
-      <c r="B187" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C187" s="0" t="inlineStr">
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
         <is>
           <t>2016-03-21</t>
         </is>
       </c>
-      <c r="D187" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E187" s="0" t="inlineStr">
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="0" t="inlineStr">
+      <c r="A188" s="3" t="inlineStr">
         <is>
           <t>李浩</t>
         </is>
       </c>
-      <c r="B188" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C188" s="0" t="inlineStr">
+      <c r="B188" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C188" s="3" t="inlineStr">
         <is>
           <t>2016-06-01</t>
         </is>
       </c>
-      <c r="D188" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E188" s="0" t="inlineStr">
+      <c r="D188" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
         <is>
           <t>向伟【概念】</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="0" t="inlineStr">
+      <c r="A189" s="3" t="inlineStr">
         <is>
           <t>姜遥歌</t>
         </is>
       </c>
-      <c r="B189" s="0" t="inlineStr">
+      <c r="B189" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C189" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D189" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E189" s="0" t="inlineStr">
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="0" t="inlineStr">
+      <c r="A190" s="3" t="inlineStr">
         <is>
           <t>张子宜</t>
         </is>
       </c>
-      <c r="B190" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C190" s="0" t="inlineStr">
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
         <is>
           <t>2016-07-18</t>
         </is>
       </c>
-      <c r="D190" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E190" s="0" t="inlineStr">
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="0" t="inlineStr">
+      <c r="A191" s="3" t="inlineStr">
         <is>
           <t>陈晨</t>
         </is>
       </c>
-      <c r="B191" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C191" s="0" t="inlineStr">
+      <c r="B191" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C191" s="3" t="inlineStr">
         <is>
           <t>2016-07-18</t>
         </is>
       </c>
-      <c r="D191" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E191" s="0" t="inlineStr">
+      <c r="D191" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E191" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="0" t="inlineStr">
+      <c r="A192" s="3" t="inlineStr">
         <is>
           <t>李兆勋</t>
         </is>
       </c>
-      <c r="B192" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C192" s="0" t="inlineStr">
+      <c r="B192" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C192" s="3" t="inlineStr">
         <is>
           <t>2016-10-27</t>
         </is>
       </c>
-      <c r="D192" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E192" s="0" t="inlineStr">
+      <c r="D192" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E192" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="0" t="inlineStr">
+      <c r="A193" s="3" t="inlineStr">
         <is>
           <t>赵熙金</t>
         </is>
       </c>
-      <c r="B193" s="0" t="inlineStr">
+      <c r="B193" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C193" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D193" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E193" s="0" t="inlineStr">
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E193" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="0" t="inlineStr">
+      <c r="A194" s="3" t="inlineStr">
         <is>
           <t>吴青</t>
         </is>
       </c>
-      <c r="B194" s="0" t="inlineStr">
+      <c r="B194" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C194" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D194" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E194" s="0" t="inlineStr">
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
         <is>
           <t>陈炼</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="0" t="inlineStr">
+      <c r="A195" s="3" t="inlineStr">
         <is>
           <t>刘先生</t>
         </is>
       </c>
-      <c r="B195" s="0" t="inlineStr">
+      <c r="B195" s="3" t="inlineStr">
         <is>
           <t>已关闭</t>
         </is>
       </c>
-      <c r="C195" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D195" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E195" s="0" t="inlineStr">
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr">
         <is>
           <t>陆胜</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="0" t="inlineStr">
+      <c r="A196" s="3" t="inlineStr">
         <is>
           <t>陈瑶</t>
         </is>
       </c>
-      <c r="B196" s="0" t="inlineStr">
-        <is>
-          <t>已报名</t>
-        </is>
-      </c>
-      <c r="C196" s="0" t="inlineStr">
+      <c r="B196" s="3" t="inlineStr">
+        <is>
+          <t>已报名</t>
+        </is>
+      </c>
+      <c r="C196" s="3" t="inlineStr">
         <is>
           <t>2016-10-21</t>
         </is>
       </c>
-      <c r="D196" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E196" s="0" t="inlineStr">
+      <c r="D196" s="3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
         <is>
           <t>田飞</t>
         </is>
